--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_35.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3581189.995851886</v>
+        <v>3581189.995851887</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>690645.6593120764</v>
+        <v>653700.4275154902</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8011101.594347781</v>
+        <v>8011101.594347782</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>88.18799940186481</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>166.9107949218292</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>155.4526127311943</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>20.40125615200026</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>220.7148204074462</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>142.4132573910162</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>33.77936158463009</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>129.0666178516128</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>24.4155685421403</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>63.326378226286</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.3159054168623</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>54.47555601903419</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051966</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>16.8689335499818</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>59.77945773664919</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>34.26584747916407</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>211.2516384019568</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174109</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>122.3137095599313</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>76.03219122548657</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385012</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>48.8236429470112</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>203.8435192151917</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>124.655509018973</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>8.854048023342452</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051979</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>16.53113748782044</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1.446023500476854</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>62.4888586011088</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>186.9338896468051</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>120.8530343211901</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>64.539875256597</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>171.2589951202374</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3484,10 +3484,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>155.5402382479068</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>109.7158546988684</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3955,16 +3955,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>65.06182847190721</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789692</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>195.4573835470169</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>64.34190763938388</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1483.703156598057</v>
+        <v>1137.701990660436</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>768.7394737200248</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>768.7394737200248</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>382.9512211217805</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>376.0057203725771</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.842488573869</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="Y2" t="n">
-        <v>1483.703156598057</v>
+        <v>1524.301830724558</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022.963088632153</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>2407.975480672791</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="V4" t="n">
-        <v>2250.95263953017</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="W4" t="n">
-        <v>2250.95263953017</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="X4" t="n">
-        <v>2022.963088632153</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="Y4" t="n">
-        <v>2022.963088632153</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1022.045772923999</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C5" t="n">
-        <v>1022.045772923999</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>1022.045772923999</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>1022.045772923999</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2553.297315875782</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2334.662648847845</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2080.900863485936</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>1749.837976142366</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>1749.837976142366</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.645612988121</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="Y5" t="n">
-        <v>1408.645612988121</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="6">
@@ -4641,19 +4641,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084169</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="C7" t="n">
-        <v>331.20325038051</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="D7" t="n">
-        <v>331.20325038051</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>331.20325038051</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>184.3133028825996</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>184.3133028825996</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>184.3133028825996</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1550.991915879943</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="C8" t="n">
-        <v>1182.029398939532</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="D8" t="n">
-        <v>823.7637003327811</v>
+        <v>991.3034697491298</v>
       </c>
       <c r="E8" t="n">
-        <v>823.7637003327811</v>
+        <v>605.5152171508855</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>598.5697164016821</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944065</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1937.591755944065</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036471</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4926,7 +4926,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>702.55736257324</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="S10" t="n">
-        <v>702.55736257324</v>
+        <v>336.2769833124033</v>
       </c>
       <c r="T10" t="n">
-        <v>702.55736257324</v>
+        <v>108.9687959810051</v>
       </c>
       <c r="U10" t="n">
-        <v>702.55736257324</v>
+        <v>108.9687959810051</v>
       </c>
       <c r="V10" t="n">
-        <v>702.55736257324</v>
+        <v>108.9687959810051</v>
       </c>
       <c r="W10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5018,67 +5018,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5106,37 +5106,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704855</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>1002.792923427374</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M12" t="n">
-        <v>1323.128242957076</v>
+        <v>1089.288466700114</v>
       </c>
       <c r="N12" t="n">
-        <v>1667.648898594694</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O12" t="n">
-        <v>1916.402312678656</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>157.6003821033658</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="C13" t="n">
-        <v>157.6003821033658</v>
+        <v>729.8563353209315</v>
       </c>
       <c r="D13" t="n">
-        <v>157.6003821033658</v>
+        <v>579.7396959085958</v>
       </c>
       <c r="E13" t="n">
-        <v>157.6003821033658</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>157.6003821033658</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>157.6003821033658</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>157.6003821033658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5227,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247856</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383438</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V13" t="n">
-        <v>675.0071030383438</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W13" t="n">
-        <v>385.5899330013831</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="X13" t="n">
-        <v>157.6003821033658</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="Y13" t="n">
-        <v>157.6003821033658</v>
+        <v>898.7925182488384</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5343,31 +5343,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>618.8589595388347</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M15" t="n">
-        <v>1387.227105931296</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O15" t="n">
         <v>1808.163466324677</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.0432218861031</v>
+        <v>282.2470670630133</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>282.2470670630133</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>282.2470670630133</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>282.2470670630133</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028581</v>
+        <v>282.2470670630133</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028581</v>
+        <v>282.2470670630133</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028581</v>
+        <v>131.8290586109566</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>861.8253519276506</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>861.8253519276506</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>861.8253519276506</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X16" t="n">
-        <v>633.8358010296332</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y16" t="n">
-        <v>413.0432218861031</v>
+        <v>282.2470670630133</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514066</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5580,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>836.4717212750119</v>
+        <v>343.9822193667499</v>
       </c>
       <c r="M18" t="n">
-        <v>1604.839867667473</v>
+        <v>1112.350365759211</v>
       </c>
       <c r="N18" t="n">
-        <v>1949.360523305091</v>
+        <v>1916.761944023362</v>
       </c>
       <c r="O18" t="n">
-        <v>2371.535469249458</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>665.6859735286132</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C19" t="n">
-        <v>665.6859735286132</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>515.5693341162774</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>367.6562405338843</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>220.766293035974</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>220.766293035974</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286132</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="X19" t="n">
-        <v>665.6859735286132</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="Y19" t="n">
-        <v>665.6859735286132</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,25 +5750,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5777,7 +5777,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>877.4353633695368</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M21" t="n">
-        <v>1197.770682899239</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N21" t="n">
-        <v>1542.291338536857</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O21" t="n">
-        <v>2211.755099839516</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>3975.739489936619</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>3806.803307008712</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>3806.803307008712</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>3658.890213426318</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>3658.890213426318</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V22" t="n">
-        <v>820.5263570570736</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="W22" t="n">
-        <v>531.109187020113</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="X22" t="n">
-        <v>303.1196361220957</v>
+        <v>4378.180533910388</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>4157.387954766858</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6023,7 +6023,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>498.0074325903863</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>1111.904502347275</v>
+        <v>779.5615433385053</v>
       </c>
       <c r="M24" t="n">
-        <v>1419.224635627236</v>
+        <v>1099.896862868207</v>
       </c>
       <c r="N24" t="n">
-        <v>1749.087263291269</v>
+        <v>1444.417518505825</v>
       </c>
       <c r="O24" t="n">
-        <v>2418.551024593929</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>861.4909633328887</v>
+        <v>4162.087918499594</v>
       </c>
       <c r="C25" t="n">
-        <v>692.5547804049818</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="D25" t="n">
-        <v>542.438140992646</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="E25" t="n">
-        <v>394.5250474102529</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V25" t="n">
-        <v>1378.897684267867</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="W25" t="n">
-        <v>1089.480514230906</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="X25" t="n">
-        <v>861.4909633328887</v>
+        <v>4343.736383329833</v>
       </c>
       <c r="Y25" t="n">
-        <v>861.4909633328887</v>
+        <v>4343.736383329833</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6218,13 +6218,13 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6233,22 +6233,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.325632214049</v>
+        <v>860.1838454192343</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>377.6878657662453</v>
+        <v>4071.38955607529</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383384</v>
+        <v>3902.453373147383</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>3902.453373147383</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>3902.453373147383</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>3755.563425649473</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>3587.388103969293</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V28" t="n">
-        <v>1297.535630674993</v>
+        <v>4071.38955607529</v>
       </c>
       <c r="W28" t="n">
-        <v>1008.118460638033</v>
+        <v>4071.38955607529</v>
       </c>
       <c r="X28" t="n">
-        <v>780.1289097400152</v>
+        <v>4071.38955607529</v>
       </c>
       <c r="Y28" t="n">
-        <v>559.336330596485</v>
+        <v>4071.38955607529</v>
       </c>
     </row>
     <row r="29">
@@ -6443,34 +6443,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>714.2166166306681</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1034.55193616037</v>
+        <v>1453.012798589759</v>
       </c>
       <c r="N30" t="n">
-        <v>1364.414563824403</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O30" t="n">
-        <v>2033.878325127062</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>265.3924131404652</v>
+        <v>4037.957270257084</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>3869.021087329177</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>3869.021087329177</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>4486.739400298631</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>4486.739400298631</v>
       </c>
       <c r="V31" t="n">
-        <v>675.007103038344</v>
+        <v>4486.739400298631</v>
       </c>
       <c r="W31" t="n">
-        <v>675.007103038344</v>
+        <v>4486.739400298631</v>
       </c>
       <c r="X31" t="n">
-        <v>486.1849922839954</v>
+        <v>4258.749849400614</v>
       </c>
       <c r="Y31" t="n">
-        <v>265.3924131404652</v>
+        <v>4037.957270257084</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>452.5377573864724</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1220.905903778934</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="N33" t="n">
-        <v>2025.317482043085</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O33" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
         <v>208.7516828383384</v>
@@ -6880,28 +6880,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1433.724477369421</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1233.804467284973</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1010.019052074479</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U34" t="n">
-        <v>1010.019052074479</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V34" t="n">
-        <v>755.3345638685918</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W34" t="n">
-        <v>755.3345638685918</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X34" t="n">
-        <v>527.3450129705744</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="Y34" t="n">
-        <v>527.3450129705744</v>
+        <v>330.8254548799445</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6935,10 +6935,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>1002.792923427374</v>
+        <v>684.1208130436055</v>
       </c>
       <c r="M36" t="n">
-        <v>1771.161069819836</v>
+        <v>1452.488959436067</v>
       </c>
       <c r="N36" t="n">
-        <v>2115.681725457453</v>
+        <v>2256.900537700218</v>
       </c>
       <c r="O36" t="n">
-        <v>2554.178946862809</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324574</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643324</v>
@@ -7199,25 +7199,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>138.7081686256435</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>532.2639865649898</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M39" t="n">
-        <v>1300.632132957451</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N39" t="n">
-        <v>2105.043711221602</v>
+        <v>1850.959268203227</v>
       </c>
       <c r="O39" t="n">
-        <v>2353.797125305564</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>711.3743239205529</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C40" t="n">
-        <v>542.438140992646</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D40" t="n">
-        <v>542.438140992646</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028587</v>
@@ -7336,10 +7336,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1341.80491879234</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1341.80491879234</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>1341.80491879234</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V40" t="n">
-        <v>1341.80491879234</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W40" t="n">
-        <v>1341.80491879234</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="X40" t="n">
-        <v>1113.815367894323</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="Y40" t="n">
-        <v>893.0227887507926</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7403,37 +7403,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>388.8958536704856</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L42" t="n">
-        <v>388.8958536704856</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M42" t="n">
-        <v>1157.264000062947</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N42" t="n">
-        <v>1961.675578327098</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="O42" t="n">
-        <v>1961.675578327098</v>
+        <v>1826.270802107373</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7573,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>874.927113122792</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>646.9375622247746</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="44">
@@ -7631,55 +7631,55 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
@@ -7713,37 +7713,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K45" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L45" t="n">
-        <v>618.8589595388347</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M45" t="n">
-        <v>939.1942790685365</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N45" t="n">
-        <v>1283.714934706155</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7834,22 +7834,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V46" t="n">
-        <v>1387.841167119728</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="W46" t="n">
-        <v>1387.841167119728</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="X46" t="n">
-        <v>1387.841167119728</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y46" t="n">
-        <v>1322.84934122136</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,10 +9015,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>212.4466810925944</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,10 +9255,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>122.7596633546112</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>86.26207553098817</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,19 +9963,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>239.4112112177722</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10197,13 +10197,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>308.4847070287954</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,10 +10434,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>158.9979480233624</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,25 +11142,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>163.4000292435526</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11391,13 +11391,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>129.5650290965874</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>50.63978772762281</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>76.15339798510793</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>74.98571399662058</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>26.60011880760486</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>142.5524621266082</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>117.6699255163664</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.74113413690304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>42.59131207965484</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24418,13 +24418,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>243.2835953004856</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>132.3826908797157</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>250.6916198233511</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>159.0587024572804</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>38.77576574223204</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>58.9789458607472</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,25 +25120,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>45.4244771471958</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>8.572985061699882</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>42.38057173569649</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>176.8071436377226</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25786,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,10 +25795,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,16 +25843,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>153.5228248801876</v>
       </c>
     </row>
     <row r="44">
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,13 +26074,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>56.68025977681111</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>154.2427457127109</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409908</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409908</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409908</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409908</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>684300.8545409908</v>
+        <v>684300.8545409909</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409908</v>
       </c>
       <c r="F2" t="n">
         <v>684300.8545409904</v>
       </c>
       <c r="G2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="H2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="I2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="J2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="K2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="L2" t="n">
         <v>684300.8545409908</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="N2" t="n">
         <v>684300.8545409902</v>
       </c>
-      <c r="I2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>684300.8545409905</v>
       </c>
-      <c r="L2" t="n">
-        <v>684300.8545409905</v>
-      </c>
-      <c r="M2" t="n">
-        <v>684300.8545409907</v>
-      </c>
-      <c r="N2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="O2" t="n">
-        <v>684300.8545409909</v>
-      </c>
       <c r="P2" t="n">
-        <v>684300.8545409909</v>
+        <v>684300.8545409903</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758693</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759236</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905759648</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905759022</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.793690575952</v>
-      </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758463</v>
       </c>
     </row>
     <row r="5">
@@ -26470,28 +26470,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26503,13 +26503,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93474.54782732524</v>
+        <v>-93474.547827325</v>
       </c>
       <c r="C6" t="n">
-        <v>496493.3313872196</v>
+        <v>496493.3313872194</v>
       </c>
       <c r="D6" t="n">
         <v>496493.3313872194</v>
       </c>
       <c r="E6" t="n">
-        <v>66365.69842480229</v>
+        <v>66365.69842480228</v>
       </c>
       <c r="F6" t="n">
+        <v>591525.734901698</v>
+      </c>
+      <c r="G6" t="n">
+        <v>591525.7349016978</v>
+      </c>
+      <c r="H6" t="n">
+        <v>591525.734901698</v>
+      </c>
+      <c r="I6" t="n">
+        <v>591525.7349016975</v>
+      </c>
+      <c r="J6" t="n">
+        <v>415102.5157091049</v>
+      </c>
+      <c r="K6" t="n">
+        <v>591525.7349016975</v>
+      </c>
+      <c r="L6" t="n">
+        <v>591525.7349016983</v>
+      </c>
+      <c r="M6" t="n">
+        <v>456724.7196678608</v>
+      </c>
+      <c r="N6" t="n">
         <v>591525.7349016977</v>
       </c>
-      <c r="G6" t="n">
-        <v>591525.7349016982</v>
-      </c>
-      <c r="H6" t="n">
-        <v>591525.7349016976</v>
-      </c>
-      <c r="I6" t="n">
-        <v>591525.734901698</v>
-      </c>
-      <c r="J6" t="n">
-        <v>415102.5157091045</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>591525.7349016981</v>
       </c>
-      <c r="L6" t="n">
-        <v>591525.7349016981</v>
-      </c>
-      <c r="M6" t="n">
-        <v>456724.7196678611</v>
-      </c>
-      <c r="N6" t="n">
-        <v>591525.734901698</v>
-      </c>
-      <c r="O6" t="n">
-        <v>591525.7349016984</v>
-      </c>
       <c r="P6" t="n">
-        <v>591525.7349016984</v>
+        <v>591525.7349016978</v>
       </c>
     </row>
   </sheetData>
@@ -26707,19 +26707,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26829,7 +26829,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>277.0848923691427</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>246.8733750989658</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>96.68503059263367</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>198.1833972000945</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>186.1612253342652</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>32.00245541795533</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>114.8361114335823</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>5.899003940725436</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>382.4604771995711</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>350.457791794509</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.806844538052008</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>232.0474423175568</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.088413291423442e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31139,28 +31139,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31376,28 +31376,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576413</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>31.1946272699642</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>231.7356543115325</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,19 +32075,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>274.1662526638221</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32099,7 +32099,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961188</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -32321,28 +32321,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>175.1732645054591</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>158.0642534345932</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>161.3943125352952</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946997</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>116.1540744796865</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,28 +33032,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>34.7174057112735</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>264.3220800446422</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>98.44906376001131</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>360.5460764797682</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>191.6604114357508</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>165.2451637080779</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>3.596162983032201</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>322.7775841815155</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,16 +34384,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>131.4209907335603</v>
       </c>
       <c r="O45" t="n">
-        <v>278.4799167015761</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594833</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>354.7656570979458</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>416.2240155371395</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>142.8245405804888</v>
+        <v>81.1049690092611</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>426.4393393377442</v>
+        <v>405.1233655957193</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>506.0649156948135</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>345.8826737609021</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36373,13 +36373,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>236.8375141189274</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>367.4201493119716</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>358.2884355392551</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>496.6080455682272</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>166.350673106777</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>16.86391410134405</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>349.7151385922964</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>592.8320420033532</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>442.9264862680359</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>397.5311292316629</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>254.8622378153173</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>370.4934441750772</v>
+        <v>507.2659454071224</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38035,10 +38035,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>479.4216529937805</v>
       </c>
       <c r="O45" t="n">
-        <v>529.7459915338612</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3581189.995851887</v>
+        <v>3656719.66551669</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>653700.4275154902</v>
+        <v>802949.1059286529</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +664,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>322.6159522267454</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>166.9107949218292</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>55.84003136202612</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.40125615200026</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>142.4132573910162</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,13 +955,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>87.92304373246472</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>124.2826752554035</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>33.77936158463009</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>197.1405923820262</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>63.326378226286</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.1059252827037</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>54.47555601903419</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>16.8689335499818</v>
+        <v>25.09740809881331</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>34.26584747916407</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>153.0952537370583</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>23.85319828068249</v>
       </c>
       <c r="Y19" t="n">
-        <v>76.03219122548657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385012</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>48.8236429470112</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>46.50658467955458</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>124.655509018973</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>88.40546239687016</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>121.9221813633448</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>16.53113748782044</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,10 +3003,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>62.4888586011088</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>172.9588533016931</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>120.8530343211901</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>84.5915616504051</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527407</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,13 +3319,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>171.2589951202374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>131.7797102890547</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3518,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,10 +3672,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>192.9064840388917</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>109.7158546988684</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,16 +3948,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>196.8675348026772</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>65.06182847190721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.964516789692</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>195.4573835470169</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>199.0163637341695</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1137.701990660436</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="C2" t="n">
-        <v>768.7394737200248</v>
+        <v>554.1525618548221</v>
       </c>
       <c r="D2" t="n">
-        <v>768.7394737200248</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>382.9512211217805</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>376.0057203725771</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2267.209817970484</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1914.44116270037</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1914.44116270037</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1524.301830724558</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>224.6669506791651</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>224.6669506791651</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>224.6669506791651</v>
+        <v>671.7249121235795</v>
       </c>
       <c r="X4" t="n">
-        <v>224.6669506791651</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1376.372217881286</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2553.297315875782</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2334.662648847845</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2080.900863485936</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>1749.837976142366</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>1749.837976142366</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X5" t="n">
-        <v>1376.372217881286</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="Y5" t="n">
-        <v>1376.372217881286</v>
+        <v>2135.941483343059</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.0633493392342</v>
+        <v>573.1740092465172</v>
       </c>
       <c r="C7" t="n">
-        <v>257.0633493392342</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694738</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694738</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1349.56916835588</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="C8" t="n">
-        <v>1349.56916835588</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="D8" t="n">
-        <v>991.3034697491298</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>605.5152171508855</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>598.5697164016821</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592772</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.708500331692</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y8" t="n">
-        <v>1349.56916835588</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036471</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4926,7 +4928,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>329.7728273507099</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>329.7728273507099</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>329.7728273507099</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>329.7728273507099</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>329.7728273507099</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>329.7728273507099</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942406</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124033</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810051</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810051</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810051</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>329.7728273507099</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5027,22 +5029,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>383.2013159098376</v>
       </c>
       <c r="L12" t="n">
-        <v>738.0704661731477</v>
+        <v>997.0983856667262</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.288466700114</v>
+        <v>1317.433705196428</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.809122337732</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2103.272883640391</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>898.7925182488384</v>
+        <v>531.109187020113</v>
       </c>
       <c r="C13" t="n">
-        <v>729.8563353209315</v>
+        <v>531.109187020113</v>
       </c>
       <c r="D13" t="n">
-        <v>579.7396959085958</v>
+        <v>380.9925476077773</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488384</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>898.7925182488384</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W13" t="n">
-        <v>898.7925182488384</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X13" t="n">
-        <v>898.7925182488384</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y13" t="n">
-        <v>898.7925182488384</v>
+        <v>531.109187020113</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5257,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5303,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5358,22 +5360,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>738.0704661731477</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M15" t="n">
-        <v>1058.405785702849</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="N15" t="n">
-        <v>1138.699705022018</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>282.2470670630133</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>282.2470670630133</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>282.2470670630133</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>282.2470670630133</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>282.2470670630133</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>282.2470670630133</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>131.8290586109566</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141521</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W16" t="n">
-        <v>731.0291971045608</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X16" t="n">
-        <v>503.0396462065435</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y16" t="n">
-        <v>282.2470670630133</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5497,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5595,19 +5597,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>343.9822193667499</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M18" t="n">
-        <v>1112.350365759211</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="N18" t="n">
-        <v>1916.761944023362</v>
+        <v>1166.334348939045</v>
       </c>
       <c r="O18" t="n">
-        <v>2317.834075963124</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
         <v>2317.834075963124</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.2699138005285</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>964.135741824786</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>964.135741824786</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W19" t="n">
-        <v>674.7185717878253</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X19" t="n">
-        <v>674.7185717878253</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="Y19" t="n">
-        <v>597.9183786307682</v>
+        <v>672.4909068465487</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,13 +5752,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5777,7 +5779,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5792,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5835,19 +5837,19 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>738.0704661731477</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1058.405785702849</v>
+        <v>1686.277353519135</v>
       </c>
       <c r="N21" t="n">
-        <v>1559.410052240715</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3975.739489936619</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C22" t="n">
-        <v>3806.803307008712</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D22" t="n">
-        <v>3806.803307008712</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E22" t="n">
-        <v>3658.890213426318</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>3658.890213426318</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014292</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V22" t="n">
-        <v>4606.170084808406</v>
+        <v>851.8161700876719</v>
       </c>
       <c r="W22" t="n">
-        <v>4606.170084808406</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="X22" t="n">
-        <v>4378.180533910388</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="Y22" t="n">
-        <v>4157.387954766858</v>
+        <v>562.3990000507114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6029,10 +6031,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,19 +6068,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>779.5615433385053</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1099.896862868207</v>
+        <v>1429.324563341649</v>
       </c>
       <c r="N24" t="n">
-        <v>1444.417518505825</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
         <v>1808.163466324677</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4162.087918499594</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>4036.173262924874</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>4036.173262924874</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>4036.173262924874</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426963</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1098.622710169755</v>
       </c>
       <c r="U25" t="n">
-        <v>4571.72593422785</v>
+        <v>809.4940713833126</v>
       </c>
       <c r="V25" t="n">
-        <v>4571.72593422785</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W25" t="n">
-        <v>4571.72593422785</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X25" t="n">
-        <v>4343.736383329833</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y25" t="n">
-        <v>4343.736383329833</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="26">
@@ -6203,46 +6205,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6309,13 +6311,13 @@
         <v>246.2867756623457</v>
       </c>
       <c r="L27" t="n">
-        <v>860.1838454192343</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="M27" t="n">
-        <v>1214.889396603097</v>
+        <v>794.1790493843999</v>
       </c>
       <c r="N27" t="n">
-        <v>1559.410052240715</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O27" t="n">
         <v>1808.163466324677</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4071.38955607529</v>
+        <v>537.2200865194189</v>
       </c>
       <c r="C28" t="n">
-        <v>3902.453373147383</v>
+        <v>368.2839035915121</v>
       </c>
       <c r="D28" t="n">
-        <v>3902.453373147383</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>3902.453373147383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3755.563425649473</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3587.388103969293</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>4326.074044281177</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>4071.38955607529</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W28" t="n">
-        <v>4071.38955607529</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X28" t="n">
-        <v>4071.38955607529</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="Y28" t="n">
-        <v>4071.38955607529</v>
+        <v>537.2200865194189</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,7 +6448,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
         <v>904.3190116155888</v>
@@ -6455,16 +6457,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,19 +6481,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465301</v>
@@ -6503,10 +6505,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>2948.395228855329</v>
       </c>
       <c r="M30" t="n">
-        <v>1453.012798589759</v>
+        <v>3677.885323043636</v>
       </c>
       <c r="N30" t="n">
-        <v>1797.533454227377</v>
+        <v>4022.405978681254</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>4271.159392765216</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>4791.460014500963</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4037.957270257084</v>
+        <v>3904.376443449036</v>
       </c>
       <c r="C31" t="n">
-        <v>3869.021087329177</v>
+        <v>3904.376443449036</v>
       </c>
       <c r="D31" t="n">
-        <v>3869.021087329177</v>
+        <v>3904.376443449036</v>
       </c>
       <c r="E31" t="n">
-        <v>3721.107993746784</v>
+        <v>3756.463349866643</v>
       </c>
       <c r="F31" t="n">
-        <v>3721.107993746784</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746784</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
         <v>4411.546387431056</v>
@@ -6649,22 +6651,22 @@
         <v>4549.85945949167</v>
       </c>
       <c r="T31" t="n">
-        <v>4486.739400298631</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U31" t="n">
-        <v>4486.739400298631</v>
+        <v>4260.730820705228</v>
       </c>
       <c r="V31" t="n">
-        <v>4486.739400298631</v>
+        <v>4260.730820705228</v>
       </c>
       <c r="W31" t="n">
-        <v>4486.739400298631</v>
+        <v>4260.730820705228</v>
       </c>
       <c r="X31" t="n">
-        <v>4258.749849400614</v>
+        <v>4260.730820705228</v>
       </c>
       <c r="Y31" t="n">
-        <v>4037.957270257084</v>
+        <v>4086.024908279276</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6682,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6786,16 +6788,16 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1138.699705022018</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>208.7516828383384</v>
+        <v>564.4843764226425</v>
       </c>
       <c r="C34" t="n">
-        <v>208.7516828383384</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7516828383384</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6883,25 +6885,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1302.395145250632</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>1302.395145250632</v>
       </c>
       <c r="U34" t="n">
-        <v>874.927113122792</v>
+        <v>1013.26650646419</v>
       </c>
       <c r="V34" t="n">
-        <v>620.2426249169051</v>
+        <v>1013.26650646419</v>
       </c>
       <c r="W34" t="n">
-        <v>330.8254548799445</v>
+        <v>1013.26650646419</v>
       </c>
       <c r="X34" t="n">
-        <v>330.8254548799445</v>
+        <v>785.2769555661727</v>
       </c>
       <c r="Y34" t="n">
-        <v>330.8254548799445</v>
+        <v>564.4843764226425</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,16 +6937,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6953,7 +6955,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7014,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>684.1208130436055</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1452.488959436067</v>
+        <v>1837.025945943907</v>
       </c>
       <c r="N36" t="n">
-        <v>2256.900537700218</v>
+        <v>2181.546601581525</v>
       </c>
       <c r="O36" t="n">
-        <v>2536.440602918915</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.3337308726216</v>
+        <v>549.3807322743211</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>380.4445493464142</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>230.3279099340785</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>230.3279099340785</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>230.3279099340785</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383442</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324574</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W37" t="n">
-        <v>420.3226148324574</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X37" t="n">
-        <v>420.3226148324574</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y37" t="n">
-        <v>420.3226148324574</v>
+        <v>731.0291971045608</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>264.0657286834808</v>
       </c>
       <c r="L39" t="n">
-        <v>738.0704661731477</v>
+        <v>786.4844115036555</v>
       </c>
       <c r="M39" t="n">
-        <v>1506.438612565609</v>
+        <v>1554.852557896117</v>
       </c>
       <c r="N39" t="n">
-        <v>1850.959268203227</v>
+        <v>1884.71518556015</v>
       </c>
       <c r="O39" t="n">
-        <v>2103.272883640391</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>564.1830073829216</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7357,25 +7359,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1192.986132737009</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1192.986132737009</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383442</v>
+        <v>1192.986132737009</v>
       </c>
       <c r="V40" t="n">
-        <v>675.0071030383442</v>
+        <v>938.3016445311218</v>
       </c>
       <c r="W40" t="n">
-        <v>564.1830073829216</v>
+        <v>938.3016445311218</v>
       </c>
       <c r="X40" t="n">
-        <v>564.1830073829216</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="Y40" t="n">
-        <v>564.1830073829216</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7403,37 +7405,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>222.5746515181233</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L42" t="n">
-        <v>836.471721275012</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M42" t="n">
-        <v>1156.807040804714</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N42" t="n">
-        <v>1156.807040804714</v>
+        <v>1843.889457459129</v>
       </c>
       <c r="O42" t="n">
-        <v>1826.270802107373</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>581.2185435662825</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C43" t="n">
-        <v>412.2823606383756</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D43" t="n">
-        <v>412.2823606383756</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7594,25 +7596,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>874.927113122792</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V43" t="n">
-        <v>874.927113122792</v>
+        <v>765.2796460645058</v>
       </c>
       <c r="W43" t="n">
-        <v>874.927113122792</v>
+        <v>765.2796460645058</v>
       </c>
       <c r="X43" t="n">
-        <v>646.9375622247746</v>
+        <v>537.2900951664884</v>
       </c>
       <c r="Y43" t="n">
-        <v>581.2185435662825</v>
+        <v>537.2900951664884</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028589</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028589</v>
+        <v>2626.17692130864</v>
       </c>
       <c r="L45" t="n">
-        <v>711.1141612171746</v>
+        <v>2856.140027176989</v>
       </c>
       <c r="M45" t="n">
-        <v>1479.482307609636</v>
+        <v>3176.475346706691</v>
       </c>
       <c r="N45" t="n">
-        <v>1954.109744073479</v>
+        <v>3786.061107781569</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>4034.814521865531</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="46">
@@ -7789,31 +7791,31 @@
         <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1164.055751909234</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>966.6240513566914</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W46" t="n">
-        <v>966.6240513566914</v>
+        <v>784.9755865264517</v>
       </c>
       <c r="X46" t="n">
-        <v>966.6240513566914</v>
+        <v>784.9755865264517</v>
       </c>
       <c r="Y46" t="n">
-        <v>745.8314722131613</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
   </sheetData>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>258.7131786684897</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,13 +8786,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>204.9337023490255</v>
       </c>
       <c r="N15" t="n">
-        <v>212.4466810925944</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,10 +9026,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,25 +9242,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>122.7596633546112</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,19 +9491,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,13 +9725,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9738,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,10 +9959,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>243.0021620627199</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9975,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,22 +10190,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>308.4847070287954</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10212,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>158.9979480233624</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10449,7 +10451,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,10 +10679,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10905,25 +10907,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>278.4379342562733</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,10 +11159,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11391,13 +11393,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.5650290965874</v>
+        <v>121.3365545477559</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>76.15339798510793</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>72.61440165197882</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>201.8564571083547</v>
       </c>
       <c r="Y19" t="n">
-        <v>142.5524621266082</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>117.6699255163664</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>205.6310586442734</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>42.59131207965484</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>133.1420986615191</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>26.69329165486759</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>132.3826908797157</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>159.0587024572804</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>45.62580005040169</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>58.9789458607472</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>113.3292483331982</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8.572985061699882</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>34.71385817432289</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25597,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>5.014325944711516</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>176.8071436377226</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>55.27010852115077</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.5228248801876</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26077,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>56.68025977681111</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>87.50663460242146</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>684300.8545409908</v>
+        <v>684300.8545409907</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>684300.8545409909</v>
+        <v>684300.8545409908</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409908</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="F2" t="n">
         <v>684300.8545409904</v>
       </c>
       <c r="G2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="H2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="I2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="J2" t="n">
         <v>684300.8545409903</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="I2" t="n">
-        <v>684300.85454099</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409904</v>
       </c>
       <c r="K2" t="n">
         <v>684300.85454099</v>
       </c>
       <c r="L2" t="n">
-        <v>684300.8545409908</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="M2" t="n">
+        <v>684300.8545409897</v>
+      </c>
+      <c r="N2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="O2" t="n">
         <v>684300.8545409904</v>
       </c>
-      <c r="N2" t="n">
-        <v>684300.8545409902</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>684300.8545409905</v>
-      </c>
-      <c r="P2" t="n">
-        <v>684300.8545409903</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
-      <c r="C4" t="n">
-        <v>139059.139180619</v>
-      </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905759209</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905759022</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758693</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758694</v>
@@ -26445,19 +26447,19 @@
         <v>787.7936905758693</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.793690575917</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758463</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,31 +26487,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93474.547827325</v>
+        <v>-93474.54782732509</v>
       </c>
       <c r="C6" t="n">
         <v>496493.3313872194</v>
@@ -26528,19 +26530,19 @@
         <v>496493.3313872194</v>
       </c>
       <c r="E6" t="n">
-        <v>66365.69842480228</v>
+        <v>66365.6984248018</v>
       </c>
       <c r="F6" t="n">
         <v>591525.734901698</v>
       </c>
       <c r="G6" t="n">
-        <v>591525.7349016978</v>
+        <v>591525.7349016974</v>
       </c>
       <c r="H6" t="n">
-        <v>591525.734901698</v>
+        <v>591525.7349016977</v>
       </c>
       <c r="I6" t="n">
-        <v>591525.7349016975</v>
+        <v>591525.7349016981</v>
       </c>
       <c r="J6" t="n">
         <v>415102.5157091049</v>
@@ -26549,19 +26551,19 @@
         <v>591525.7349016975</v>
       </c>
       <c r="L6" t="n">
-        <v>591525.7349016983</v>
+        <v>591525.734901698</v>
       </c>
       <c r="M6" t="n">
-        <v>456724.7196678608</v>
+        <v>456724.7196678601</v>
       </c>
       <c r="N6" t="n">
-        <v>591525.7349016977</v>
+        <v>591525.7349016978</v>
       </c>
       <c r="O6" t="n">
+        <v>591525.734901698</v>
+      </c>
+      <c r="P6" t="n">
         <v>591525.7349016981</v>
-      </c>
-      <c r="P6" t="n">
-        <v>591525.7349016978</v>
       </c>
     </row>
   </sheetData>
@@ -26716,13 +26718,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26829,7 +26831,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27384,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>32.06708939393752</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>246.8733750989658</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>230.6829669745649</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.1833972000945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>32.00245541795533</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>281.8080569460043</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>55.54930492653379</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>114.8361114335823</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>157.5424492386568</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>350.457791794509</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>18.06496355909141</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>232.0474423175568</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
     </row>
     <row r="36">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31139,28 +31141,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,28 +31378,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529255</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>162.4518126576413</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,16 +31840,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>31.1946272699642</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -31859,16 +31861,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,31 +32071,31 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -32321,16 +32323,16 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>386.3087789943131</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,22 +32551,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>246.4016201290364</v>
       </c>
       <c r="N21" t="n">
-        <v>158.0642534345932</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>341.0678223458549</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,22 +32788,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>231.6435684109408</v>
       </c>
       <c r="O24" t="n">
-        <v>116.1540744796865</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
@@ -32810,13 +32812,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33029,16 +33031,16 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>34.7174057112735</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,25 +33253,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>413.2876511703079</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -33278,19 +33280,19 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33351,10 +33353,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33509,25 +33511,25 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>339.3147979156454</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33736,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>360.5460764797682</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>356.7627466536975</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33973,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>3.596162983032201</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34210,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>281.2756545884615</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>322.7775841815155</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,16 +34386,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647517</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34447,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>131.4209907335603</v>
+        <v>267.7425307447066</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>120.8717396941307</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>354.7656570979458</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>515.3580793994917</v>
       </c>
       <c r="N15" t="n">
-        <v>81.1049690092611</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178376</v>
@@ -35744,7 +35746,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>405.1233655957193</v>
+        <v>637.5748538265982</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>569.972649957018</v>
       </c>
       <c r="N21" t="n">
-        <v>506.0649156948135</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>100.3018563276075</v>
       </c>
       <c r="O24" t="n">
-        <v>367.4201493119716</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>358.2884355392551</v>
+        <v>553.4265391131861</v>
       </c>
       <c r="N27" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>166.350673106777</v>
+        <v>736.8586809982895</v>
       </c>
       <c r="N30" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>16.86391410134405</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>687.3154601758656</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>592.8320420033532</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>680.3337764816791</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>527.6956392122976</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>254.8622378153173</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>629.2763168486817</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>507.2659454071224</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38035,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>479.4216529937805</v>
+        <v>615.7431930049269</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3656719.66551669</v>
+        <v>3649702.650624981</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>802949.1059286529</v>
+        <v>606475.1993859709</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8011101.594347782</v>
+        <v>8011101.594347781</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>322.6159522267454</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>137.307957686918</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034777</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>68.22769775781612</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>55.84003136202612</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>116.209489534681</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -955,13 +955,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>87.92304373246472</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>124.2826752554035</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>201.089163843681</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>197.1405923820262</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>401.355084472379</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586903</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.1059252827037</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560491</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>25.09740809881331</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633774</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849763</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701323</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>70.98684734308314</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>153.0952537370583</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>23.85319828068249</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>169.7438101404416</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>46.50658467955458</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>27.26009267756244</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>88.40546239687016</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D28" t="n">
-        <v>121.9221813633448</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>265.2692612118931</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>237.3965091869248</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>172.9588533016931</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>84.5915616504051</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>131.7797102890547</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>192.9064840388917</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>196.8675348026772</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>199.0163637341695</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>923.1150787952338</v>
+        <v>1097.103316533936</v>
       </c>
       <c r="C2" t="n">
-        <v>554.1525618548221</v>
+        <v>1097.103316533936</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>738.8376179271852</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>353.049365328941</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>346.1038645797375</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,31 +4327,31 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,46 +4406,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>291.7960311703079</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>122.8598482424009</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>671.7249121235795</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X4" t="n">
-        <v>443.7353612255621</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.942782082032</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>577.9834619915252</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>192.195209393281</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>185.2497086440775</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>171.3263045826685</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628377</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.752638628377</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>2135.941483343059</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>2135.941483343059</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="6">
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>573.1740092465172</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>601.1385180919704</v>
+        <v>2310.549250954102</v>
       </c>
       <c r="C8" t="n">
-        <v>601.1385180919704</v>
+        <v>1941.58673401369</v>
       </c>
       <c r="D8" t="n">
-        <v>402.0066065949742</v>
+        <v>1583.32103540694</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>1197.532782808695</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>786.5468780190879</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533145</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733132</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="W8" t="n">
-        <v>1364.743608328862</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="X8" t="n">
-        <v>991.2778500677821</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="Y8" t="n">
-        <v>601.1385180919704</v>
+        <v>2697.149091018224</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>329.7728273507099</v>
+        <v>667.7988452409106</v>
       </c>
       <c r="C10" t="n">
-        <v>329.7728273507099</v>
+        <v>498.8626623130037</v>
       </c>
       <c r="D10" t="n">
-        <v>329.7728273507099</v>
+        <v>348.746022900668</v>
       </c>
       <c r="E10" t="n">
-        <v>329.7728273507099</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>329.7728273507099</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>329.7728273507099</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y10" t="n">
-        <v>329.7728273507099</v>
+        <v>728.1289842064349</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465297</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121726</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851611</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590532</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="K12" t="n">
-        <v>383.2013159098376</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="L12" t="n">
-        <v>997.0983856667262</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M12" t="n">
-        <v>1317.433705196428</v>
+        <v>897.6601296826484</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>531.109187020113</v>
+        <v>434.3285960683718</v>
       </c>
       <c r="C13" t="n">
-        <v>531.109187020113</v>
+        <v>265.392413140465</v>
       </c>
       <c r="D13" t="n">
-        <v>380.9925476077773</v>
+        <v>265.392413140465</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>265.392413140465</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>265.392413140465</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570736</v>
+        <v>1354.176360977119</v>
       </c>
       <c r="W13" t="n">
-        <v>531.109187020113</v>
+        <v>1064.759190940158</v>
       </c>
       <c r="X13" t="n">
-        <v>531.109187020113</v>
+        <v>836.7696400421412</v>
       </c>
       <c r="Y13" t="n">
-        <v>531.109187020113</v>
+        <v>615.9770608986113</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,31 +5296,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047983</v>
       </c>
       <c r="L15" t="n">
-        <v>836.4717212750119</v>
+        <v>508.1073603047983</v>
       </c>
       <c r="M15" t="n">
-        <v>1346.676219880509</v>
+        <v>508.1073603047983</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>1312.518938568949</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C16" t="n">
         <v>265.3924131404652</v>
@@ -5427,28 +5427,28 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
         <v>1283.483062980063</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1427.212384352767</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>1427.212384352767</v>
       </c>
       <c r="V16" t="n">
-        <v>709.4512536188989</v>
+        <v>1172.52789614688</v>
       </c>
       <c r="W16" t="n">
-        <v>420.0340835819383</v>
+        <v>883.1107261099196</v>
       </c>
       <c r="X16" t="n">
-        <v>265.3924131404652</v>
+        <v>655.1211752119023</v>
       </c>
       <c r="Y16" t="n">
-        <v>265.3924131404652</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5503,43 +5503,43 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181232</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L18" t="n">
-        <v>836.4717212750119</v>
+        <v>235.3837416680656</v>
       </c>
       <c r="M18" t="n">
-        <v>836.4717212750119</v>
+        <v>1003.751888060527</v>
       </c>
       <c r="N18" t="n">
-        <v>1166.334348939045</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>672.4909068465487</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>786.082206476518</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609664</v>
+        <v>786.082206476518</v>
       </c>
       <c r="W19" t="n">
-        <v>696.5850465240057</v>
+        <v>496.6650364395574</v>
       </c>
       <c r="X19" t="n">
-        <v>672.4909068465487</v>
+        <v>268.67548554154</v>
       </c>
       <c r="Y19" t="n">
-        <v>672.4909068465487</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5764,40 +5764,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,19 +5819,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K21" t="n">
         <v>508.1073603047985</v>
@@ -5840,16 +5840,16 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1686.277353519135</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>2016.139981183168</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488382</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>851.8161700876719</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>562.3990000507114</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y22" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6010,28 +6010,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,19 +6056,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K24" t="n">
         <v>508.1073603047985</v>
@@ -6077,16 +6077,16 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1429.324563341649</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1471.380823408849</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1271.460813324402</v>
       </c>
       <c r="T25" t="n">
-        <v>1098.622710169755</v>
+        <v>1271.460813324402</v>
       </c>
       <c r="U25" t="n">
-        <v>809.4940713833126</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="V25" t="n">
-        <v>554.8095831774258</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W25" t="n">
-        <v>265.3924131404652</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>265.3924131404652</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>265.3924131404652</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6208,43 +6208,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6308,22 +6308,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>246.2867756623457</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>246.2867756623457</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>794.1790493843999</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>537.2200865194189</v>
+        <v>266.1532743881929</v>
       </c>
       <c r="C28" t="n">
-        <v>368.2839035915121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6384,52 +6384,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799358</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471185</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473453</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473453</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>1031.047511774571</v>
       </c>
       <c r="V28" t="n">
-        <v>986.0022165609664</v>
+        <v>776.363023568684</v>
       </c>
       <c r="W28" t="n">
-        <v>986.0022165609664</v>
+        <v>486.9458535317232</v>
       </c>
       <c r="X28" t="n">
-        <v>758.0126656629491</v>
+        <v>486.9458535317232</v>
       </c>
       <c r="Y28" t="n">
-        <v>537.2200865194189</v>
+        <v>266.1532743881929</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>2334.498159098441</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>2948.395228855329</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>3677.885323043636</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>4022.405978681254</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>4271.159392765216</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>4791.460014500963</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3904.376443449036</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>3904.376443449036</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>3904.376443449036</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>3756.463349866643</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4549.85945949167</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4260.730820705228</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>4260.730820705228</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>4260.730820705228</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>4260.730820705228</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>4086.024908279276</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,16 +6788,16 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1442.339749591389</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>2122.782055165496</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>564.4843764226425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1302.395145250632</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1302.395145250632</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U34" t="n">
-        <v>1013.26650646419</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>1013.26650646419</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>1013.26650646419</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>785.2769555661727</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>564.4843764226425</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,28 +6925,28 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6958,7 +6958,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1163.495507227045</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1837.025945943907</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>2181.546601581525</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2430.300015665487</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>549.3807322743211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>380.4445493464142</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>230.3279099340785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>230.3279099340785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>230.3279099340785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1020.446367141521</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>731.0291971045608</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>731.0291971045608</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>731.0291971045608</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7171,7 +7171,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823786</v>
@@ -7198,13 +7198,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>264.0657286834808</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>786.4844115036555</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1554.852557896117</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1884.71518556015</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1192.986132737009</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1192.986132737009</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1192.986132737009</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>938.3016445311218</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>938.3016445311218</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7493,25 +7493,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>452.5377573864724</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1220.905903778934</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.889457459129</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.642871543091</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U43" t="n">
-        <v>964.1357418247858</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>765.2796460645058</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>765.2796460645058</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>537.2900951664884</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>537.2900951664884</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>2626.17692130864</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>2856.140027176989</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>3176.475346706691</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>3786.061107781569</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>4034.814521865531</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>4555.115143601278</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>986.0022165609664</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>784.9755865264517</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>784.9755865264517</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>258.7131786684897</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8786,13 +8786,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>204.9337023490255</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,10 +9026,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,22 +9242,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>278.1166527170254</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9491,19 +9491,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>243.0021620627199</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10205,16 +10205,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>278.4379342562733</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11153,10 +11153,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11390,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>121.3365545477559</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.4192454642718</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037926</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>108.8451328388516</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>150.5607137153061</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>72.61440165197882</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>201.8564571083547</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>48.84084321165315</v>
       </c>
     </row>
     <row r="20">
@@ -24132,16 +24132,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>205.6310586442734</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>82.70425972623036</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.1420986615191</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>26.69329165486759</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633778</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675363</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642722</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.964352403793</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>20.96809118668443</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>14.74113413690318</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>45.62580005040169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>113.3292483331982</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>34.71385817432289</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>5.014325944711516</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>55.27010852115077</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,13 +26025,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>87.50663460242146</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>684300.8545409908</v>
+        <v>684300.8545409905</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409908</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="F2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="G2" t="n">
         <v>684300.8545409904</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>684300.8545409907</v>
+      </c>
+      <c r="I2" t="n">
+        <v>684300.8545409908</v>
+      </c>
+      <c r="J2" t="n">
+        <v>684300.8545409909</v>
+      </c>
+      <c r="K2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="L2" t="n">
+        <v>684300.8545409907</v>
+      </c>
+      <c r="M2" t="n">
         <v>684300.8545409904</v>
       </c>
-      <c r="G2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.8545409902</v>
-      </c>
-      <c r="I2" t="n">
-        <v>684300.8545409905</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="K2" t="n">
-        <v>684300.85454099</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>684300.8545409904</v>
       </c>
-      <c r="M2" t="n">
-        <v>684300.8545409897</v>
-      </c>
-      <c r="N2" t="n">
-        <v>684300.8545409903</v>
-      </c>
       <c r="O2" t="n">
+        <v>684300.8545409908</v>
+      </c>
+      <c r="P2" t="n">
         <v>684300.8545409904</v>
-      </c>
-      <c r="P2" t="n">
-        <v>684300.8545409905</v>
       </c>
     </row>
     <row r="3">
@@ -26365,25 +26365,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768954</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905761267</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905759867</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905759311</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905759224</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905759185</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905758164</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905759209</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.793690575917</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26469,46 +26469,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93474.54782732509</v>
+        <v>-93474.54782732534</v>
       </c>
       <c r="C6" t="n">
-        <v>496493.3313872194</v>
+        <v>496493.3313872195</v>
       </c>
       <c r="D6" t="n">
-        <v>496493.3313872194</v>
+        <v>496493.3313872193</v>
       </c>
       <c r="E6" t="n">
-        <v>66365.6984248018</v>
+        <v>65391.10716508073</v>
       </c>
       <c r="F6" t="n">
-        <v>591525.734901698</v>
+        <v>590551.1436419762</v>
       </c>
       <c r="G6" t="n">
-        <v>591525.7349016974</v>
+        <v>590551.1436419762</v>
       </c>
       <c r="H6" t="n">
-        <v>591525.7349016977</v>
+        <v>590551.1436419763</v>
       </c>
       <c r="I6" t="n">
-        <v>591525.7349016981</v>
+        <v>590551.1436419766</v>
       </c>
       <c r="J6" t="n">
-        <v>415102.5157091049</v>
+        <v>414127.9244493838</v>
       </c>
       <c r="K6" t="n">
-        <v>591525.7349016975</v>
+        <v>590551.1436419764</v>
       </c>
       <c r="L6" t="n">
-        <v>591525.734901698</v>
+        <v>590551.1436419765</v>
       </c>
       <c r="M6" t="n">
-        <v>456724.7196678601</v>
+        <v>455750.1284081393</v>
       </c>
       <c r="N6" t="n">
-        <v>591525.7349016978</v>
+        <v>590551.1436419763</v>
       </c>
       <c r="O6" t="n">
-        <v>591525.734901698</v>
+        <v>590551.1436419766</v>
       </c>
       <c r="P6" t="n">
-        <v>591525.7349016981</v>
+        <v>590551.1436419763</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26718,13 +26718,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054540999</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26764,7 +26764,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370129</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990167</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990167</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990167</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>32.06708939393752</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>276.476212333877</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>80.38777526039624</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>230.6829669745649</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>207.7132832296762</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>281.8080569460043</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.54930492653379</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>51.04847948014705</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>157.5424492386568</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>12.42908554841603</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060683</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>18.06496355909141</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.501998773775994e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>2.588649294921197e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29046,7 +29046,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31375,31 +31375,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993377</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529255</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>252.6713260851633</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,43 +32074,43 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>249.3849633048146</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041486</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565516</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.040313094699</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104645</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127061</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O18" t="n">
-        <v>386.3087789943131</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361486</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892242</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135181</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32560,22 +32560,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>246.4016201290364</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32800,19 +32800,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>231.6435684109408</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -33025,31 +33025,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33183,40 +33183,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,43 +33256,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>413.2876511703079</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33356,7 +33356,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33368,10 +33368,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33426,7 +33426,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>339.3147979156454</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33523,7 +33523,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33681,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>356.7627466536975</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33757,10 +33757,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33918,7 +33918,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104648</v>
@@ -33973,10 +33973,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
@@ -33985,19 +33985,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34155,7 +34155,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104648</v>
@@ -34210,31 +34210,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>281.2756545884615</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34447,31 +34447,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>267.7425307447066</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279154</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>120.8717396941307</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>576.2423559131449</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415661</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178375</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556563</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187485</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>515.3580793994917</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>812.5369477415661</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>500.6510381370996</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714616</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221114</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349799</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>139.5622729371513</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415661</v>
       </c>
       <c r="O18" t="n">
-        <v>637.5748538265982</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714616</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187469</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>569.972649957018</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>100.3018563276075</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>553.4265391131861</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556536</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799283</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118006</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187459</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>736.8586809982895</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
@@ -37156,19 +37156,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>687.3154601758656</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37393,22 +37393,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>680.3337764816791</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>527.6956392122976</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>629.2763168486817</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>615.7431930049269</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3649702.650624981</v>
+        <v>3654641.913474013</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>606475.1993859709</v>
+        <v>618607.2139007733</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8011101.594347781</v>
+        <v>8011101.594347782</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>137.307957686918</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>99.72812891921986</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034777</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>68.22769775781612</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>134.9474759313285</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>116.209489534681</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>337.455017953679</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>201.089163843681</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>115.2373148110768</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>401.355084472379</v>
+        <v>132.6301997610079</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586903</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>86.85904583823142</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113188</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560491</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819371</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633774</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>143.2925104849763</v>
+        <v>213.9145308202375</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,13 +1666,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701323</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>70.98684734308314</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y19" t="n">
-        <v>169.7438101404416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>27.26009267756244</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>260.0974949759689</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836034</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>265.2692612118931</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>237.3965091869248</v>
+        <v>196.9337346452251</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,7 +3720,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>54.92969084765564</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1097.103316533936</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C2" t="n">
-        <v>1097.103316533936</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>738.8376179271852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>353.049365328941</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>346.1038645797375</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2596.413607261435</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2596.413607261435</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834949</v>
+        <v>2342.651821899526</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834949</v>
+        <v>2011.588934555955</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834949</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.842488573869</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y2" t="n">
-        <v>1483.703156598057</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291.7960311703079</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>122.8598482424009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005476</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.4444960005476</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>936.2491605982757</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>936.2491605982757</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>577.9834619915252</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>192.195209393281</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>185.2497086440775</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>171.3263045826685</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4573,13 +4573,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y5" t="n">
-        <v>936.2491605982757</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4731,43 +4731,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>525.0086166875648</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>351.9927747426009</v>
       </c>
       <c r="Y7" t="n">
         <v>235.5914466506042</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2310.549250954102</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C8" t="n">
-        <v>1941.58673401369</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D8" t="n">
-        <v>1583.32103540694</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E8" t="n">
-        <v>1197.532782808695</v>
+        <v>752.3647613633752</v>
       </c>
       <c r="F8" t="n">
-        <v>786.5468780190879</v>
+        <v>341.3788565737677</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533145</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733132</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018224</v>
+        <v>2251.981069572903</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.063382757265</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409106</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130037</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>348.746022900668</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064349</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064349</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064349</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064349</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805481</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465297</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121726</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851611</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590532</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L12" t="n">
         <v>327.180197328635</v>
       </c>
       <c r="M12" t="n">
-        <v>897.6601296826484</v>
+        <v>897.6601296826478</v>
       </c>
       <c r="N12" t="n">
         <v>1702.071707946799</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.3285960683718</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="C13" t="n">
-        <v>265.392413140465</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D13" t="n">
-        <v>265.392413140465</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>265.392413140465</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>265.392413140465</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028581</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1354.176360977119</v>
+        <v>1282.840986901097</v>
       </c>
       <c r="W13" t="n">
-        <v>1064.759190940158</v>
+        <v>993.4238168641361</v>
       </c>
       <c r="X13" t="n">
-        <v>836.7696400421412</v>
+        <v>765.4342659661188</v>
       </c>
       <c r="Y13" t="n">
-        <v>615.9770608986113</v>
+        <v>544.6416868225887</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,19 +5263,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
@@ -5296,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,19 +5354,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047983</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>508.1073603047983</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M15" t="n">
-        <v>508.1073603047983</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="N15" t="n">
         <v>1312.518938568949</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1427.212384352767</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1427.212384352767</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>1172.52789614688</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>883.1107261099196</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>655.1211752119023</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5500,46 +5500,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L18" t="n">
-        <v>235.3837416680656</v>
+        <v>224.7537295707647</v>
       </c>
       <c r="M18" t="n">
-        <v>1003.751888060527</v>
+        <v>993.1218759632262</v>
       </c>
       <c r="N18" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.082206476518</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>786.082206476518</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>496.6650364395574</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>268.67548554154</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,19 +5819,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
         <v>508.1073603047985</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5943,19 +5943,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5968,16 +5968,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5986,52 +5986,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,19 +6056,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
         <v>508.1073603047985</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1471.380823408849</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1271.460813324402</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1271.460813324402</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>982.3321745379599</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>727.647686332073</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="26">
@@ -6208,19 +6208,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,10 +6229,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881929</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
         <v>97.21709146028584</v>
@@ -6384,52 +6384,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799358</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471185</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473453</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473453</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1031.047511774571</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V28" t="n">
-        <v>776.363023568684</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>486.9458535317232</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>486.9458535317232</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>266.1532743881929</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6442,52 +6442,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,10 +6539,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
         <v>508.1073603047985</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6654,19 +6654,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>587.1592421884125</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>587.1592421884125</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="32">
@@ -6688,25 +6688,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6727,10 +6727,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6885,22 +6885,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
         <v>97.21709146028584</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,34 +6931,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,16 +7016,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
         <v>2623.573505376138</v>
@@ -7122,22 +7122,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7153,10 +7153,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7359,13 +7359,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
         <v>614.6238123952637</v>
@@ -7390,40 +7390,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>1019.726309053207</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>765.0418208473204</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="44">
@@ -7648,7 +7648,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7660,16 +7660,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -9248,7 +9248,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>278.1166527170254</v>
+        <v>267.3792667601558</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642718</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037926</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>108.8451328388516</v>
+        <v>38.22311250359047</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23706,10 +23706,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>150.5607137153061</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.84084321165315</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>82.70425972623036</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>26.42550336062209</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633778</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675363</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642722</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.964352403793</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583894</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>20.96809118668443</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>14.74113413690318</v>
+        <v>55.20390867860289</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>231.3076615509217</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409908</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>684300.8545409908</v>
+        <v>684300.8545409907</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="F2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="G2" t="n">
+        <v>684300.8545409907</v>
+      </c>
+      <c r="H2" t="n">
         <v>684300.8545409905</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="J2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="K2" t="n">
         <v>684300.8545409903</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="M2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="N2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="O2" t="n">
         <v>684300.8545409904</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.8545409907</v>
-      </c>
-      <c r="I2" t="n">
-        <v>684300.8545409908</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409909</v>
-      </c>
-      <c r="K2" t="n">
-        <v>684300.8545409905</v>
-      </c>
-      <c r="L2" t="n">
-        <v>684300.8545409907</v>
-      </c>
-      <c r="M2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="N2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="O2" t="n">
-        <v>684300.8545409908</v>
       </c>
       <c r="P2" t="n">
         <v>684300.8545409904</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.434074986013002e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768954</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.611524223539163e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905761267</v>
+        <v>787.7936905758178</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759867</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905759311</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905759224</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905759185</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758164</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93474.54782732534</v>
+        <v>-93474.54782732492</v>
       </c>
       <c r="C6" t="n">
-        <v>496493.3313872195</v>
+        <v>496493.3313872196</v>
       </c>
       <c r="D6" t="n">
-        <v>496493.3313872193</v>
+        <v>496493.3313872194</v>
       </c>
       <c r="E6" t="n">
-        <v>65391.10716508073</v>
+        <v>66268.23929882921</v>
       </c>
       <c r="F6" t="n">
-        <v>590551.1436419762</v>
+        <v>591428.2757757256</v>
       </c>
       <c r="G6" t="n">
-        <v>590551.1436419762</v>
+        <v>591428.2757757261</v>
       </c>
       <c r="H6" t="n">
-        <v>590551.1436419763</v>
+        <v>591428.275775726</v>
       </c>
       <c r="I6" t="n">
-        <v>590551.1436419766</v>
+        <v>591428.2757757258</v>
       </c>
       <c r="J6" t="n">
-        <v>414127.9244493838</v>
+        <v>415005.0565831329</v>
       </c>
       <c r="K6" t="n">
-        <v>590551.1436419764</v>
+        <v>591428.2757757257</v>
       </c>
       <c r="L6" t="n">
-        <v>590551.1436419765</v>
+        <v>591428.2757757257</v>
       </c>
       <c r="M6" t="n">
-        <v>455750.1284081393</v>
+        <v>456627.2605418887</v>
       </c>
       <c r="N6" t="n">
-        <v>590551.1436419763</v>
+        <v>591428.275775726</v>
       </c>
       <c r="O6" t="n">
-        <v>590551.1436419766</v>
+        <v>591428.2757757258</v>
       </c>
       <c r="P6" t="n">
-        <v>590551.1436419763</v>
+        <v>591428.2757757258</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370129</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990167</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990167</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990167</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>276.476212333877</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>74.68758388975168</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>80.38777526039624</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>77.19806301869036</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>207.7132832296762</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>11.78595076373398</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>51.04847948014705</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>103.347338541018</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>12.42908554841603</v>
+        <v>281.1539702597871</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481162</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060683</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853696</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>131.7256075138634</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-8.052863496252198e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.501998773775994e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.609011774391923e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>2.588649294921197e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29046,7 +29046,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31375,31 +31375,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>86.4344768999344</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993377</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104645</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31849,13 +31849,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>252.6713260851633</v>
+        <v>252.6713260851627</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31867,13 +31867,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361486</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104645</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -32089,28 +32089,28 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>249.3849633048146</v>
+        <v>249.3849633048137</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361486</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304447</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104645</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -32323,31 +32323,31 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361486</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32560,7 +32560,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
         <v>392.6063366508803</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32797,7 +32797,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
         <v>392.6063366508803</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33034,7 +33034,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
         <v>392.6063366508803</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33271,7 +33271,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
         <v>392.6063366508803</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,25 +33411,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33508,7 +33508,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
         <v>392.6063366508803</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>392.6063366508803</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33982,7 +33982,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
         <v>392.6063366508803</v>
@@ -34000,10 +34000,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34219,7 +34219,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
         <v>392.6063366508803</v>
@@ -34237,10 +34237,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,16 +34386,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34456,7 +34456,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
         <v>392.6063366508803</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770697</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279154</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349799</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>576.2423559131449</v>
+        <v>576.2423559131443</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415661</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178375</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556563</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187485</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349799</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415661</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>500.6510381370996</v>
+        <v>500.6510381370987</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714616</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187469</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349799</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>139.5622729371513</v>
+        <v>128.8248869802816</v>
       </c>
       <c r="M18" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415661</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714616</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187469</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>740.6069989111005</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
         <v>740.6069989111005</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>740.6069989111005</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556536</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799283</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118006</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187459</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>740.6069989111005</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>740.6069989111005</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37393,10 +37393,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>740.6069989111005</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
         <v>740.6069989111005</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>740.6069989111005</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>740.6069989111005</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
